--- a/financial_files/excel/AZUL.xlsx
+++ b/financial_files/excel/AZUL.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O116" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O116" headerRowCount="1">
   <autoFilter ref="A1:O116"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/AZUL.xlsx
+++ b/financial_files/excel/AZUL.xlsx
@@ -2,27 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\QuickFSScraping\financial_files\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonprojects\quickfs_scraping\financial_files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDEA52-978A-4309-A4FC-D6B1FB5630A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C7526-C0C5-4400-BF41-D68D69742EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="financial_data_scraped" sheetId="1" r:id="rId1"/>
     <sheet name="financial_statement_api" sheetId="2" r:id="rId2"/>
-    <sheet name="rule1_results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="221">
   <si>
     <t>Category</t>
   </si>
@@ -685,217 +684,13 @@
   </si>
   <si>
     <t>price_to_sales</t>
-  </si>
-  <si>
-    <t>Rule #1 Metric</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>ROIC - 10-year</t>
-  </si>
-  <si>
-    <t>ROIC - 5-year</t>
-  </si>
-  <si>
-    <t>ROIC - 3-year</t>
-  </si>
-  <si>
-    <t>ROIC - 1-year</t>
-  </si>
-  <si>
-    <t>ROIC QuickFS - 10-year</t>
-  </si>
-  <si>
-    <t>ROIC QuickFS - 5-year</t>
-  </si>
-  <si>
-    <t>ROIC QuickFS - 3-year</t>
-  </si>
-  <si>
-    <t>ROIC QuickFS - 1-year</t>
-  </si>
-  <si>
-    <t>Equity Growth Rate - 9-year</t>
-  </si>
-  <si>
-    <t>Equity Growth Rate - 5-year</t>
-  </si>
-  <si>
-    <t>Equity Growth Rate - 3-year</t>
-  </si>
-  <si>
-    <t>Equity Growth Rate - 1-year</t>
-  </si>
-  <si>
-    <t>EPS Growth Rate - 9-year</t>
-  </si>
-  <si>
-    <t>EPS Growth Rate - 5-year</t>
-  </si>
-  <si>
-    <t>EPS Growth Rate - 3-year</t>
-  </si>
-  <si>
-    <t>EPS Growth Rate - 1-year</t>
-  </si>
-  <si>
-    <t>Sales Growth Rate - 9-year</t>
-  </si>
-  <si>
-    <t>Sales Growth Rate - 5-year</t>
-  </si>
-  <si>
-    <t>Sales Growth Rate - 3-year</t>
-  </si>
-  <si>
-    <t>Sales Growth Rate - 1-year</t>
-  </si>
-  <si>
-    <t>FCF Growth Rate - 9-year</t>
-  </si>
-  <si>
-    <t>FCF Growth Rate - 5-year</t>
-  </si>
-  <si>
-    <t>FCF Growth Rate - 3-year</t>
-  </si>
-  <si>
-    <t>FCF Growth Rate - 1-year</t>
-  </si>
-  <si>
-    <t>FCF QuickFS Growth Rate - 9-year</t>
-  </si>
-  <si>
-    <t>FCF QuickFS Growth Rate - 5-year</t>
-  </si>
-  <si>
-    <t>FCF QuickFS Growth Rate - 3-year</t>
-  </si>
-  <si>
-    <t>FCF QuickFS Growth Rate - 1-year</t>
-  </si>
-  <si>
-    <t>OCF Growth Rate - 9-year</t>
-  </si>
-  <si>
-    <t>OCF Growth Rate - 5-year</t>
-  </si>
-  <si>
-    <t>OCF Growth Rate - 3-year</t>
-  </si>
-  <si>
-    <t>OCF Growth Rate - 1-year</t>
-  </si>
-  <si>
-    <t>Debt - Current Long-Term Debt</t>
-  </si>
-  <si>
-    <t>Debt - Payoff Possible</t>
-  </si>
-  <si>
-    <t>current_eps</t>
-  </si>
-  <si>
-    <t>analyst_growth_rate</t>
-  </si>
-  <si>
-    <t>equity_growth_rate</t>
-  </si>
-  <si>
-    <t>eps_growth_rate</t>
-  </si>
-  <si>
-    <t>future_eps</t>
-  </si>
-  <si>
-    <t>average_historical_pe</t>
-  </si>
-  <si>
-    <t>default_pe</t>
-  </si>
-  <si>
-    <t>future_pe</t>
-  </si>
-  <si>
-    <t>future_market_price</t>
-  </si>
-  <si>
-    <t>sticker_price</t>
-  </si>
-  <si>
-    <t>margin_of_safety</t>
-  </si>
-  <si>
-    <t>shortName</t>
-  </si>
-  <si>
-    <t>Azul S.A.</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>AZUL</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>us_market</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>NYQ</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>Airlines</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>http://www.voeazul.com.br</t>
-  </si>
-  <si>
-    <t>marketCap</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>forwardPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,13 +702,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -948,20 +737,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,17 +801,6 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="2017"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="2018"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="2019"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="rule1_results" displayName="rule1_results" ref="A1:B58">
-  <autoFilter ref="A1:B58" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Rule #1 Metric"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1316,6 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6691,9 +6467,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7500,492 +7279,6 @@
       </c>
       <c r="K23">
         <v>-8.3217999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="2">
-        <v>123.7226597064665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="2">
-        <v>247.41888753194769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="2">
-        <v>412.54041307425427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1236.0241954277319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-0.11226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-9.3066666666666673E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-0.27529999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-8.0478027867639135E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-0.1451075286282747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-0.24890811141546779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-1.867568800364908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-0.2901638714708028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-0.87878424499482666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-1.474245395147576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-2.5517241379310351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.2067231707286068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4.8824232059663457E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.1191783790337495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.19530402173693989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.099364612523553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1.5059104348605621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2.280956989991338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.1136591567464387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.099364612523553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.5059104348605621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.71065197828668714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.1136591567464387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.64473906701594585</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.41201756570356118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2.3993978763091421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.39093545505353439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>255</v>
-      </c>
-      <c r="B34">
-        <v>739902000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B36">
-        <v>-5.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37">
-        <v>-0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>259</v>
-      </c>
-      <c r="B38">
-        <v>-0.5855156170690724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>260</v>
-      </c>
-      <c r="B39">
-        <v>-0.5855156170690724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B40">
-        <v>-517.02610345989604</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B41">
-        <v>-0.68163000000000018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>263</v>
-      </c>
-      <c r="B42">
-        <v>-117.1031234138145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43">
-        <v>-117.1031234138145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44">
-        <v>60545.371601627819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>266</v>
-      </c>
-      <c r="B45">
-        <v>14965.88988638754</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46">
-        <v>7482.9449431937683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>270</v>
-      </c>
-      <c r="B48" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>272</v>
-      </c>
-      <c r="B49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>274</v>
-      </c>
-      <c r="B50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>276</v>
-      </c>
-      <c r="B51" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>280</v>
-      </c>
-      <c r="B53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>282</v>
-      </c>
-      <c r="B54" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>284</v>
-      </c>
-      <c r="B55" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>286</v>
-      </c>
-      <c r="B56">
-        <v>2577739264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>287</v>
-      </c>
-      <c r="B57">
-        <v>909019</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>288</v>
-      </c>
-      <c r="B58">
-        <v>-18.983333999999999</v>
       </c>
     </row>
   </sheetData>
